--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fgf8-Fgfr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fgf8-Fgfr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Fgf8</t>
+  </si>
+  <si>
+    <t>Fgfr2</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Fgf8</t>
-  </si>
-  <si>
-    <t>Fgfr2</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G2">
+        <v>0.008099333333333333</v>
+      </c>
+      <c r="H2">
+        <v>0.024298</v>
+      </c>
+      <c r="I2">
+        <v>0.03427653281966027</v>
+      </c>
+      <c r="J2">
+        <v>0.05054848581301346</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
         <v>0.5</v>
       </c>
-      <c r="G2">
-        <v>0.06417100000000001</v>
-      </c>
-      <c r="H2">
-        <v>0.128342</v>
-      </c>
-      <c r="I2">
-        <v>0.3707399083708381</v>
-      </c>
-      <c r="J2">
-        <v>0.2820108284845396</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
       <c r="M2">
-        <v>0.8651055000000001</v>
+        <v>0.09207700000000001</v>
       </c>
       <c r="N2">
-        <v>1.730211</v>
+        <v>0.184154</v>
       </c>
       <c r="O2">
-        <v>0.418762651604452</v>
+        <v>0.0789959771480734</v>
       </c>
       <c r="P2">
-        <v>0.3305860461170526</v>
+        <v>0.05545240531440215</v>
       </c>
       <c r="Q2">
-        <v>0.05551468504050001</v>
+        <v>0.0007457623153333334</v>
       </c>
       <c r="R2">
-        <v>0.222058740162</v>
+        <v>0.004474573892000001</v>
       </c>
       <c r="S2">
-        <v>0.1552520270849638</v>
+        <v>0.00270770820333707</v>
       </c>
       <c r="T2">
-        <v>0.09322884475089821</v>
+        <v>0.002803035123332529</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.06417100000000001</v>
+        <v>0.008099333333333333</v>
       </c>
       <c r="H3">
-        <v>0.128342</v>
+        <v>0.024298</v>
       </c>
       <c r="I3">
-        <v>0.3707399083708381</v>
+        <v>0.03427653281966027</v>
       </c>
       <c r="J3">
-        <v>0.2820108284845396</v>
+        <v>0.05054848581301346</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +620,22 @@
         <v>2.969268</v>
       </c>
       <c r="O3">
-        <v>0.4791009269984018</v>
+        <v>0.8491451975864605</v>
       </c>
       <c r="P3">
-        <v>0.5673288217343945</v>
+        <v>0.8941052196698643</v>
       </c>
       <c r="Q3">
-        <v>0.063513632276</v>
+        <v>0.008016363762666666</v>
       </c>
       <c r="R3">
-        <v>0.381081793656</v>
+        <v>0.07214727386399999</v>
       </c>
       <c r="S3">
-        <v>0.1776218337757711</v>
+        <v>0.02910575323372921</v>
       </c>
       <c r="T3">
-        <v>0.1599928710404742</v>
+        <v>0.04519566501182342</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.06417100000000001</v>
+        <v>0.008099333333333333</v>
       </c>
       <c r="H4">
-        <v>0.128342</v>
+        <v>0.024298</v>
       </c>
       <c r="I4">
-        <v>0.3707399083708381</v>
+        <v>0.03427653281966027</v>
       </c>
       <c r="J4">
-        <v>0.2820108284845396</v>
+        <v>0.05054848581301346</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -679,42 +676,42 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.09870899999999999</v>
+        <v>0.083758</v>
       </c>
       <c r="N4">
-        <v>0.197418</v>
+        <v>0.167516</v>
       </c>
       <c r="O4">
-        <v>0.04778104240144566</v>
+        <v>0.07185882526546619</v>
       </c>
       <c r="P4">
-        <v>0.0377200445797283</v>
+        <v>0.05044237501573352</v>
       </c>
       <c r="Q4">
-        <v>0.006334255239</v>
+        <v>0.0006783839613333333</v>
       </c>
       <c r="R4">
-        <v>0.025337020956</v>
+        <v>0.004070303768</v>
       </c>
       <c r="S4">
-        <v>0.0177143392817751</v>
+        <v>0.002463071382593985</v>
       </c>
       <c r="T4">
-        <v>0.01063746102240294</v>
+        <v>0.00254978567785751</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -723,46 +720,46 @@
         <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.06417100000000001</v>
+        <v>0.2281945</v>
       </c>
       <c r="H5">
-        <v>0.128342</v>
+        <v>0.456389</v>
       </c>
       <c r="I5">
-        <v>0.3707399083708381</v>
+        <v>0.9657234671803397</v>
       </c>
       <c r="J5">
-        <v>0.2820108284845396</v>
+        <v>0.9494515141869866</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.1122906666666667</v>
+        <v>0.09207700000000001</v>
       </c>
       <c r="N5">
-        <v>0.336872</v>
+        <v>0.184154</v>
       </c>
       <c r="O5">
-        <v>0.0543553789957005</v>
+        <v>0.0789959771480734</v>
       </c>
       <c r="P5">
-        <v>0.06436508756882468</v>
+        <v>0.05545240531440215</v>
       </c>
       <c r="Q5">
-        <v>0.007205804370666667</v>
+        <v>0.0210114649765</v>
       </c>
       <c r="R5">
-        <v>0.043234826224</v>
+        <v>0.084045859906</v>
       </c>
       <c r="S5">
-        <v>0.02015170822832818</v>
+        <v>0.07628826894473632</v>
       </c>
       <c r="T5">
-        <v>0.01815165167076419</v>
+        <v>0.05264937019106962</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +767,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -782,49 +779,49 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.008099333333333333</v>
+        <v>0.2281945</v>
       </c>
       <c r="H6">
-        <v>0.024298</v>
+        <v>0.456389</v>
       </c>
       <c r="I6">
-        <v>0.04679288304475347</v>
+        <v>0.9657234671803397</v>
       </c>
       <c r="J6">
-        <v>0.05339093290206901</v>
+        <v>0.9494515141869866</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.8651055000000001</v>
+        <v>0.9897559999999999</v>
       </c>
       <c r="N6">
-        <v>1.730211</v>
+        <v>2.969268</v>
       </c>
       <c r="O6">
-        <v>0.418762651604452</v>
+        <v>0.8491451975864605</v>
       </c>
       <c r="P6">
-        <v>0.3305860461170526</v>
+        <v>0.8941052196698643</v>
       </c>
       <c r="Q6">
-        <v>0.007006777813000001</v>
+        <v>0.225856875542</v>
       </c>
       <c r="R6">
-        <v>0.042040666878</v>
+        <v>1.355141253252</v>
       </c>
       <c r="S6">
-        <v>0.01959511178003797</v>
+        <v>0.8200394443527312</v>
       </c>
       <c r="T6">
-        <v>0.01765029740659585</v>
+        <v>0.848909554658041</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +829,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -844,421 +841,49 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.008099333333333333</v>
+        <v>0.2281945</v>
       </c>
       <c r="H7">
-        <v>0.024298</v>
+        <v>0.456389</v>
       </c>
       <c r="I7">
-        <v>0.04679288304475347</v>
+        <v>0.9657234671803397</v>
       </c>
       <c r="J7">
-        <v>0.05339093290206901</v>
+        <v>0.9494515141869866</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9897559999999999</v>
+        <v>0.083758</v>
       </c>
       <c r="N7">
-        <v>2.969268</v>
+        <v>0.167516</v>
       </c>
       <c r="O7">
-        <v>0.4791009269984018</v>
+        <v>0.07185882526546619</v>
       </c>
       <c r="P7">
-        <v>0.5673288217343945</v>
+        <v>0.05044237501573352</v>
       </c>
       <c r="Q7">
-        <v>0.008016363762666666</v>
+        <v>0.019113114931</v>
       </c>
       <c r="R7">
-        <v>0.07214727386399999</v>
+        <v>0.076452459724</v>
       </c>
       <c r="S7">
-        <v>0.02241851364366918</v>
+        <v>0.06939575388287221</v>
       </c>
       <c r="T7">
-        <v>0.03029021505463093</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.008099333333333333</v>
-      </c>
-      <c r="H8">
-        <v>0.024298</v>
-      </c>
-      <c r="I8">
-        <v>0.04679288304475347</v>
-      </c>
-      <c r="J8">
-        <v>0.05339093290206901</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>0.09870899999999999</v>
-      </c>
-      <c r="N8">
-        <v>0.197418</v>
-      </c>
-      <c r="O8">
-        <v>0.04778104240144566</v>
-      </c>
-      <c r="P8">
-        <v>0.0377200445797283</v>
-      </c>
-      <c r="Q8">
-        <v>0.0007994770939999999</v>
-      </c>
-      <c r="R8">
-        <v>0.004796862563999999</v>
-      </c>
-      <c r="S8">
-        <v>0.002235812728847253</v>
-      </c>
-      <c r="T8">
-        <v>0.002013908369219326</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.008099333333333333</v>
-      </c>
-      <c r="H9">
-        <v>0.024298</v>
-      </c>
-      <c r="I9">
-        <v>0.04679288304475347</v>
-      </c>
-      <c r="J9">
-        <v>0.05339093290206901</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.1122906666666667</v>
-      </c>
-      <c r="N9">
-        <v>0.336872</v>
-      </c>
-      <c r="O9">
-        <v>0.0543553789957005</v>
-      </c>
-      <c r="P9">
-        <v>0.06436508756882468</v>
-      </c>
-      <c r="Q9">
-        <v>0.0009094795395555555</v>
-      </c>
-      <c r="R9">
-        <v>0.008185315856</v>
-      </c>
-      <c r="S9">
-        <v>0.002543444892199063</v>
-      </c>
-      <c r="T9">
-        <v>0.003436512071622915</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.1008186666666667</v>
-      </c>
-      <c r="H10">
-        <v>0.302456</v>
-      </c>
-      <c r="I10">
-        <v>0.5824672085844085</v>
-      </c>
-      <c r="J10">
-        <v>0.6645982386133915</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.8651055000000001</v>
-      </c>
-      <c r="N10">
-        <v>1.730211</v>
-      </c>
-      <c r="O10">
-        <v>0.418762651604452</v>
-      </c>
-      <c r="P10">
-        <v>0.3305860461170526</v>
-      </c>
-      <c r="Q10">
-        <v>0.087218783036</v>
-      </c>
-      <c r="R10">
-        <v>0.523312698216</v>
-      </c>
-      <c r="S10">
-        <v>0.2439155127394503</v>
-      </c>
-      <c r="T10">
-        <v>0.2197069039595586</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.1008186666666667</v>
-      </c>
-      <c r="H11">
-        <v>0.302456</v>
-      </c>
-      <c r="I11">
-        <v>0.5824672085844085</v>
-      </c>
-      <c r="J11">
-        <v>0.6645982386133915</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0.9897559999999999</v>
-      </c>
-      <c r="N11">
-        <v>2.969268</v>
-      </c>
-      <c r="O11">
-        <v>0.4791009269984018</v>
-      </c>
-      <c r="P11">
-        <v>0.5673288217343945</v>
-      </c>
-      <c r="Q11">
-        <v>0.09978588024533332</v>
-      </c>
-      <c r="R11">
-        <v>0.8980729222079998</v>
-      </c>
-      <c r="S11">
-        <v>0.2790605795789616</v>
-      </c>
-      <c r="T11">
-        <v>0.3770457356392893</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.1008186666666667</v>
-      </c>
-      <c r="H12">
-        <v>0.302456</v>
-      </c>
-      <c r="I12">
-        <v>0.5824672085844085</v>
-      </c>
-      <c r="J12">
-        <v>0.6645982386133915</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>0.09870899999999999</v>
-      </c>
-      <c r="N12">
-        <v>0.197418</v>
-      </c>
-      <c r="O12">
-        <v>0.04778104240144566</v>
-      </c>
-      <c r="P12">
-        <v>0.0377200445797283</v>
-      </c>
-      <c r="Q12">
-        <v>0.009951709768</v>
-      </c>
-      <c r="R12">
-        <v>0.05971025860799999</v>
-      </c>
-      <c r="S12">
-        <v>0.02783089039082332</v>
-      </c>
-      <c r="T12">
-        <v>0.02506867518810604</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.1008186666666667</v>
-      </c>
-      <c r="H13">
-        <v>0.302456</v>
-      </c>
-      <c r="I13">
-        <v>0.5824672085844085</v>
-      </c>
-      <c r="J13">
-        <v>0.6645982386133915</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.1122906666666667</v>
-      </c>
-      <c r="N13">
-        <v>0.336872</v>
-      </c>
-      <c r="O13">
-        <v>0.0543553789957005</v>
-      </c>
-      <c r="P13">
-        <v>0.06436508756882468</v>
-      </c>
-      <c r="Q13">
-        <v>0.01132099529244444</v>
-      </c>
-      <c r="R13">
-        <v>0.101888957632</v>
-      </c>
-      <c r="S13">
-        <v>0.03166022587517326</v>
-      </c>
-      <c r="T13">
-        <v>0.04277692382643759</v>
+        <v>0.04789258933787601</v>
       </c>
     </row>
   </sheetData>
